--- a/Grouping_photos/grouping_photos/設計書.xlsx
+++ b/Grouping_photos/grouping_photos/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\C言語研修\最終課題 自由テーマでプログラムを作成せよ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\source\repos\Grouping_photos\Grouping_photos\grouping_photos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB91C0-842C-45E7-9BD0-646088FC859B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D90FD0-3B4C-4BD3-A0AE-F63A122F5394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="372" windowWidth="21060" windowHeight="11988" activeTab="1" xr2:uid="{C60E263B-2504-4172-A2F9-FF081DD6B9F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C60E263B-2504-4172-A2F9-FF081DD6B9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリックス形式" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -50,27 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能1</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能2</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能3</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対応する関数</t>
     <rPh sb="0" eb="2">
       <t>タイオウ</t>
@@ -81,19 +60,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>main</t>
+    <t>main()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>func1()</t>
+    <t>GetFileCreatedTime()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>func2()</t>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>func2_sub()</t>
+    <t>入力ファイルの作成日時を取得し、
+出力ファイルのファイル名に変換する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyCopyFile()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルパスのファイルを
+出力ファイルパスへコピーする</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を取得する</t>
+  </si>
+  <si>
+    <t>copyFilefopen()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetFileName()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力先パスと入力ファイルパスを
+入力させ、ループさせる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -118,15 +150,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -283,12 +321,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -298,69 +406,139 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -370,25 +548,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -404,23 +570,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,6 +669,211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537729</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA568764-6540-4DD0-86F0-8DF4639BF718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="484909" y="415636"/>
+          <a:ext cx="2047875" cy="8591550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>262245</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380009</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30895EB-7C97-4F0D-9AFF-4ADD9E35F1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9036131" y="402772"/>
+          <a:ext cx="1467592" cy="3718213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461727</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41390</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC32BDE-EE34-4ADB-96BE-19417FD935AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3161384" y="416205"/>
+          <a:ext cx="2954235" cy="5472545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>465265</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289115</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>224839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943E8F9F-B60A-4E45-A9AC-912321151B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6539494" y="334637"/>
+          <a:ext cx="1848592" cy="5376602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,96 +1173,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDFB884-6CA8-4CC5-94C3-955A3E1124C8}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="14" t="s">
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
+        <v>2</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A8" s="19">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="9" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="20">
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -835,13 +1316,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0CC770-1743-4ABC-8435-06E2CC68BCF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>